--- a/desktopApp/app/assets/files/tests/test2/infofeature_POS.xlsx
+++ b/desktopApp/app/assets/files/tests/test2/infofeature_POS.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23628"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{182B988B-48A9-434F-B38B-0100D2EDC979}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13020"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Name</t>
   </si>
@@ -82,7 +83,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.00000"/>
   </numFmts>
@@ -400,7 +401,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -416,7 +417,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -491,6 +492,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -526,6 +544,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -701,19 +736,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:XFD23"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -730,7 +765,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>11</v>
       </c>
@@ -747,7 +782,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>15</v>
       </c>
@@ -764,7 +799,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
@@ -781,7 +816,7 @@
         <v>1.6E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>8</v>
       </c>
@@ -798,7 +833,7 @@
         <v>2.3E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>17</v>
       </c>
@@ -815,7 +850,7 @@
         <v>3.2000000000000001E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>10</v>
       </c>
@@ -832,7 +867,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>7</v>
       </c>
@@ -849,7 +884,7 @@
         <v>2.1999999999999999E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
         <v>13</v>
       </c>
@@ -866,7 +901,7 @@
         <v>4.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
         <v>14</v>
       </c>
@@ -883,7 +918,7 @@
         <v>1.7000000000000001E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>9</v>
       </c>
@@ -900,128 +935,94 @@
         <v>4.4999999999999998E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="11">
-        <v>229.15425999999999</v>
-      </c>
-      <c r="C12" s="11">
-        <v>1.39</v>
-      </c>
-      <c r="D12" s="11">
-        <v>14340625.790346101</v>
+        <v>5</v>
+      </c>
+      <c r="B12" s="21">
+        <v>150.05792</v>
+      </c>
+      <c r="C12" s="26">
+        <v>2.77</v>
+      </c>
+      <c r="D12" s="29">
+        <v>27269834.233940799</v>
       </c>
       <c r="E12" s="18">
-        <v>8.9999999999999993E-3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="B13" s="11">
-        <v>229.15425999999999</v>
+        <v>182.08068</v>
       </c>
       <c r="C13" s="11">
-        <v>1.39</v>
+        <v>3.4649999999999999</v>
       </c>
       <c r="D13" s="11">
-        <v>14340625.790346101</v>
+        <v>48459164.562783301</v>
       </c>
       <c r="E13" s="18">
-        <v>2.8000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B14" s="21">
-        <v>150.05792</v>
-      </c>
-      <c r="C14" s="26">
-        <v>2.77</v>
-      </c>
-      <c r="D14" s="29">
-        <v>27269834.233940799</v>
-      </c>
-      <c r="E14" s="18">
-        <v>1.0999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>3.4000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="13">
+        <v>257.14672999999999</v>
+      </c>
+      <c r="C14" s="13">
+        <v>2.8639999999999999</v>
+      </c>
+      <c r="D14" s="13">
+        <v>63118217.092899598</v>
+      </c>
+      <c r="E14" s="19">
+        <v>3.4000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" s="11">
-        <v>182.08068</v>
-      </c>
-      <c r="C15" s="11">
-        <v>3.4649999999999999</v>
-      </c>
-      <c r="D15" s="11">
-        <v>48459164.562783301</v>
-      </c>
-      <c r="E15" s="18">
-        <v>3.4000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B16" s="13">
-        <v>257.14672999999999</v>
-      </c>
-      <c r="C16" s="13">
-        <v>2.8639999999999999</v>
-      </c>
-      <c r="D16" s="13">
-        <v>63118217.092899598</v>
-      </c>
-      <c r="E16" s="19">
-        <v>3.4000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="21">
+      <c r="B15" s="21">
         <v>585.26948000000004</v>
       </c>
-      <c r="C17" s="26">
+      <c r="C15" s="26">
         <v>0.60899999999999999</v>
       </c>
-      <c r="D17" s="29">
+      <c r="D15" s="29">
         <v>126978332.295847</v>
       </c>
-      <c r="E17" s="16">
+      <c r="E15" s="16">
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="11">
+      <c r="B16" s="11">
         <v>784.58392000000003</v>
       </c>
-      <c r="C18" s="11">
+      <c r="C16" s="11">
         <v>2.2370000000000001</v>
       </c>
-      <c r="D18" s="11">
+      <c r="D16" s="11">
         <v>147198858.495442</v>
       </c>
-      <c r="E18" s="16">
+      <c r="E16" s="16">
         <v>4.7199999999999998E-4</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E1">
-    <sortState ref="A2:E23">
+  <autoFilter ref="A1:E1" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E16">
       <sortCondition descending="1" ref="A1"/>
     </sortState>
   </autoFilter>
@@ -1035,7 +1036,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E10:E15">
+  <conditionalFormatting sqref="E10:E13">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="num" val="$P$3"/>
@@ -1045,7 +1046,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E17:E18">
+  <conditionalFormatting sqref="E15:E16">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="num" val="$N$4"/>
